--- a/ECE 2020/dataMapasECEMujeres.xlsx
+++ b/ECE 2020/dataMapasECEMujeres.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chiara Zamora\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9E15663-C249-45BB-838F-6956D99DC3A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="dataMapasECE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -198,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -525,27 +516,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +547,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -564,10 +555,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>0.32653061224489793</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -575,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="1">
-        <v>0.39506172839506171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.41025641025641024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -586,10 +577,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="1">
-        <v>0.3902439024390244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.43243243243243246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -597,10 +588,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="1">
-        <v>0.35714285714285715</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.330188679245283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -608,10 +599,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>0.38297872340425532</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.35555555555555557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -619,10 +610,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="1">
-        <v>0.31313131313131315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.30693069306930693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -630,10 +621,10 @@
         <v>17</v>
       </c>
       <c r="C8" s="1">
-        <v>0.51219512195121952</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -641,10 +632,10 @@
         <v>19</v>
       </c>
       <c r="C9" s="1">
-        <v>0.40206185567010311</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.42696629213483145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -652,10 +643,10 @@
         <v>21</v>
       </c>
       <c r="C10" s="1">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.32608695652173914</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -663,10 +654,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="1">
-        <v>0.40425531914893614</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.41304347826086957</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -677,7 +668,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -685,10 +676,10 @@
         <v>27</v>
       </c>
       <c r="C13" s="1">
-        <v>0.41176470588235292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.40697674418604651</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -696,10 +687,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="1">
-        <v>0.44680851063829785</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.45517241379310347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -707,10 +698,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="1">
-        <v>0.40217391304347827</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.41860465116279072</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -718,10 +709,10 @@
         <v>51</v>
       </c>
       <c r="C16" s="1">
-        <v>0.3728813559322034</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.37676609105180536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -729,10 +720,10 @@
         <v>53</v>
       </c>
       <c r="C17" s="1">
-        <v>0.50666666666666671</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -740,10 +731,10 @@
         <v>31</v>
       </c>
       <c r="C18" s="1">
-        <v>0.49397590361445781</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.46551724137931033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -751,10 +742,10 @@
         <v>33</v>
       </c>
       <c r="C19" s="1">
-        <v>0.32432432432432434</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -762,10 +753,10 @@
         <v>35</v>
       </c>
       <c r="C20" s="1">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.35897435897435898</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -773,10 +764,10 @@
         <v>37</v>
       </c>
       <c r="C21" s="1">
-        <v>0.44230769230769229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.46938775510204084</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -784,10 +775,10 @@
         <v>39</v>
       </c>
       <c r="C22" s="1">
-        <v>0.46218487394957986</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.45871559633027525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -795,10 +786,10 @@
         <v>41</v>
       </c>
       <c r="C23" s="1">
-        <v>0.40860215053763443</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4044943820224719</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -806,10 +797,10 @@
         <v>43</v>
       </c>
       <c r="C24" s="1">
-        <v>0.52542372881355937</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -820,7 +811,7 @@
         <v>0.35849056603773582</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -828,10 +819,10 @@
         <v>47</v>
       </c>
       <c r="C26" s="1">
-        <v>0.36956521739130432</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.34782608695652173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -839,7 +830,7 @@
         <v>49</v>
       </c>
       <c r="C27" s="1">
-        <v>0.40540540540540543</v>
+        <v>0.42105263157894735</v>
       </c>
     </row>
   </sheetData>

--- a/ECE 2020/dataMapasECEMujeres.xlsx
+++ b/ECE 2020/dataMapasECEMujeres.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="500"/>
@@ -9,12 +9,10 @@
   <sheets>
     <sheet name="dataMapasECE" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dataMapasECE!$A$1:$C$27</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -190,27 +188,329 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -233,29 +533,225 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="48">
+    <cellStyle name="20% - Énfasis1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal 2" xfId="44"/>
+    <cellStyle name="Normal 3" xfId="46"/>
+    <cellStyle name="Normal 4" xfId="47"/>
+    <cellStyle name="Normal 5" xfId="41"/>
+    <cellStyle name="Notas 2" xfId="43"/>
+    <cellStyle name="Porcentaje 2" xfId="45"/>
+    <cellStyle name="Porcentaje 3" xfId="42"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -516,7 +1012,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -527,7 +1023,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -547,7 +1043,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -558,7 +1054,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -569,7 +1065,7 @@
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -580,7 +1076,7 @@
         <v>0.43243243243243246</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -591,7 +1087,7 @@
         <v>0.330188679245283</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -602,7 +1098,7 @@
         <v>0.35555555555555557</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -613,95 +1109,95 @@
         <v>0.30693069306930693</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
         <v>0.42696629213483145</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1">
         <v>0.32608695652173914</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1">
         <v>0.41304347826086957</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1">
         <v>0.40697674418604651</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1">
         <v>0.45517241379310347</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1">
         <v>0.41860465116279072</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -712,18 +1208,18 @@
         <v>0.37676609105180536</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -734,7 +1230,7 @@
         <v>0.46551724137931033</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -745,7 +1241,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -756,7 +1252,7 @@
         <v>0.35897435897435898</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -767,7 +1263,7 @@
         <v>0.46938775510204084</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -778,7 +1274,7 @@
         <v>0.45871559633027525</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -789,7 +1285,7 @@
         <v>0.4044943820224719</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -800,7 +1296,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -811,7 +1307,7 @@
         <v>0.35849056603773582</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -822,7 +1318,7 @@
         <v>0.34782608695652173</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -834,6 +1330,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C27">
+    <sortState ref="A2:C27">
+      <sortCondition ref="B1:B27"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:C27">
     <sortCondition ref="A1"/>
   </sortState>
